--- a/1_Schematic/Build V2.0/RF-GEN-Change list_20200225.xlsx
+++ b/1_Schematic/Build V2.0/RF-GEN-Change list_20200225.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="SET" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="188">
   <si>
     <t>No</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -788,6 +788,14 @@
   </si>
   <si>
     <t>RF signal이 Bias path로 빠짐 - Diode 추가 필요</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>220uF</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1233,7 +1241,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1700,6 +1708,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1914,7 +1948,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2269,6 +2303,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="30" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="71">
@@ -2651,16 +2697,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
     <col min="11" max="11" width="11.875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2727,17 +2774,17 @@
       <c r="F4" s="65"/>
       <c r="G4" s="65"/>
       <c r="H4" s="64"/>
-      <c r="K4" s="63" t="s">
+      <c r="K4" s="134" t="s">
         <v>130</v>
       </c>
-      <c r="L4" s="71" t="s">
+      <c r="L4" s="135" t="s">
         <v>129</v>
       </c>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="73"/>
+      <c r="M4" s="136"/>
+      <c r="N4" s="136"/>
+      <c r="O4" s="136"/>
+      <c r="P4" s="136"/>
+      <c r="Q4" s="137"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5" s="57" t="s">
@@ -2770,19 +2817,19 @@
       <c r="M5" s="76" t="s">
         <v>138</v>
       </c>
-      <c r="N5" s="103" t="s">
-        <v>136</v>
-      </c>
-      <c r="O5" s="103" t="s">
-        <v>136</v>
-      </c>
-      <c r="P5" s="103" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q5" s="104" t="s">
-        <v>136</v>
-      </c>
-      <c r="R5" s="102" t="s">
+      <c r="N5" s="75" t="s">
+        <v>186</v>
+      </c>
+      <c r="O5" s="75" t="s">
+        <v>186</v>
+      </c>
+      <c r="P5" s="75" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q5" s="138" t="s">
+        <v>186</v>
+      </c>
+      <c r="R5" s="133" t="s">
         <v>163</v>
       </c>
     </row>
@@ -2997,10 +3044,18 @@
       <c r="M10" s="54">
         <v>12.13</v>
       </c>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="53"/>
+      <c r="N10" s="54">
+        <v>12.15</v>
+      </c>
+      <c r="O10" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="P10" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q10" s="53" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B11" s="57" t="s">
@@ -3031,10 +3086,18 @@
       <c r="M11" s="54">
         <v>-12.38</v>
       </c>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="53"/>
+      <c r="N11" s="54">
+        <v>-12.36</v>
+      </c>
+      <c r="O11" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="P11" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q11" s="53" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B12" s="57" t="s">
@@ -3065,10 +3128,18 @@
       <c r="M12" s="54">
         <v>8.9700000000000006</v>
       </c>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="53"/>
+      <c r="N12" s="54">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="O12" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="P12" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q12" s="53" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="13" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="57" t="s">
@@ -3207,7 +3278,7 @@
     </row>
     <row r="20" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="68" t="s">
-        <v>132</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
@@ -3232,12 +3303,8 @@
       </c>
     </row>
     <row r="22" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="63" t="s">
-        <v>130</v>
-      </c>
-      <c r="C22" s="71" t="s">
-        <v>129</v>
-      </c>
+      <c r="B22" s="63"/>
+      <c r="C22" s="71"/>
       <c r="D22" s="72"/>
       <c r="E22" s="72"/>
       <c r="F22" s="72"/>
@@ -3245,12 +3312,8 @@
       <c r="H22" s="73"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="74" t="s">
-        <v>133</v>
-      </c>
-      <c r="C23" s="75" t="s">
-        <v>113</v>
-      </c>
+      <c r="B23" s="74"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="76"/>
       <c r="E23" s="103"/>
       <c r="F23" s="103"/>
@@ -3259,12 +3322,8 @@
       <c r="I23" s="102"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="55" t="s">
-        <v>134</v>
-      </c>
-      <c r="C24" s="54" t="s">
-        <v>135</v>
-      </c>
+      <c r="B24" s="55"/>
+      <c r="C24" s="54"/>
       <c r="D24" s="54"/>
       <c r="E24" s="54"/>
       <c r="F24" s="54"/>
@@ -3272,12 +3331,8 @@
       <c r="H24" s="53"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="C25" s="54" t="s">
-        <v>113</v>
-      </c>
+      <c r="B25" s="55"/>
+      <c r="C25" s="54"/>
       <c r="D25" s="54"/>
       <c r="E25" s="54"/>
       <c r="F25" s="54"/>
@@ -3285,12 +3340,8 @@
       <c r="H25" s="53"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="83" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="54" t="s">
-        <v>113</v>
-      </c>
+      <c r="B26" s="83"/>
+      <c r="C26" s="54"/>
       <c r="D26" s="54"/>
       <c r="E26" s="54"/>
       <c r="F26" s="54"/>
@@ -3298,12 +3349,8 @@
       <c r="H26" s="53"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="C27" s="69" t="s">
-        <v>136</v>
-      </c>
+      <c r="B27" s="84"/>
+      <c r="C27" s="69"/>
       <c r="D27" s="54"/>
       <c r="E27" s="69"/>
       <c r="F27" s="69"/>
@@ -3311,9 +3358,7 @@
       <c r="H27" s="100"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="101" t="s">
-        <v>159</v>
-      </c>
+      <c r="B28" s="101"/>
       <c r="C28" s="54"/>
       <c r="D28" s="54"/>
       <c r="E28" s="54"/>
@@ -3322,9 +3367,7 @@
       <c r="H28" s="53"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="101" t="s">
-        <v>160</v>
-      </c>
+      <c r="B29" s="101"/>
       <c r="C29" s="54"/>
       <c r="D29" s="54"/>
       <c r="E29" s="54"/>
@@ -3333,9 +3376,7 @@
       <c r="H29" s="53"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="101" t="s">
-        <v>161</v>
-      </c>
+      <c r="B30" s="101"/>
       <c r="C30" s="54"/>
       <c r="D30" s="54"/>
       <c r="E30" s="54"/>
@@ -3363,7 +3404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>

--- a/1_Schematic/Build V2.0/RF-GEN-Change list_20200225.xlsx
+++ b/1_Schematic/Build V2.0/RF-GEN-Change list_20200225.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="198">
   <si>
     <t>No</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -787,15 +787,56 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>RF signal이 Bias path로 빠짐 - Diode 추가 필요</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>220uF</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>RF</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF signal이 Bias path로 빠짐 - Diode 추가 필요
+L4, L5 NC 후 20VDC에서 100W 출력</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>V3.0 SCH, PCB, PL 수정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>L4, L5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 Ohm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>R5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Full Sample</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>POWER</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>집</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -807,7 +848,7 @@
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;#&quot;00"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1028,6 +1069,12 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="38">
@@ -1948,7 +1995,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2214,12 +2261,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2252,57 +2293,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="34" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="34" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="34" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="34" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="34" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="34" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="30" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="30" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2314,6 +2304,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="34" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="34" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="34" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="34" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="34" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="34" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="30" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="30" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2695,10 +2749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R31"/>
+  <dimension ref="B2:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2763,7 +2817,7 @@
         <v>130</v>
       </c>
       <c r="C4" s="65" t="s">
-        <v>129</v>
+        <v>197</v>
       </c>
       <c r="D4" s="93" t="s">
         <v>128</v>
@@ -2771,20 +2825,26 @@
       <c r="E4" s="93" t="s">
         <v>128</v>
       </c>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="64"/>
-      <c r="K4" s="134" t="s">
+      <c r="F4" s="65" t="s">
+        <v>197</v>
+      </c>
+      <c r="G4" s="65" t="s">
+        <v>187</v>
+      </c>
+      <c r="H4" s="64" t="s">
+        <v>197</v>
+      </c>
+      <c r="K4" s="115" t="s">
         <v>130</v>
       </c>
-      <c r="L4" s="135" t="s">
+      <c r="L4" s="116" t="s">
         <v>129</v>
       </c>
-      <c r="M4" s="136"/>
-      <c r="N4" s="136"/>
-      <c r="O4" s="136"/>
-      <c r="P4" s="136"/>
-      <c r="Q4" s="137"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="118"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5" s="57" t="s">
@@ -2818,18 +2878,18 @@
         <v>138</v>
       </c>
       <c r="N5" s="75" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O5" s="75" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P5" s="75" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q5" s="138" t="s">
-        <v>186</v>
-      </c>
-      <c r="R5" s="133" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q5" s="119" t="s">
+        <v>185</v>
+      </c>
+      <c r="R5" s="114" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3163,13 +3223,27 @@
       <c r="H13" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="K13" s="77"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="50"/>
+      <c r="K13" s="77" t="s">
+        <v>192</v>
+      </c>
+      <c r="L13" s="51">
+        <v>100</v>
+      </c>
+      <c r="M13" s="141">
+        <v>100</v>
+      </c>
+      <c r="N13" s="51">
+        <v>100</v>
+      </c>
+      <c r="O13" s="51">
+        <v>100</v>
+      </c>
+      <c r="P13" s="51">
+        <v>100</v>
+      </c>
+      <c r="Q13" s="140">
+        <v>100</v>
+      </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B14" s="56" t="s">
@@ -3233,6 +3307,7 @@
       <c r="H16" s="53" t="s">
         <v>113</v>
       </c>
+      <c r="L16" s="139"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="55" t="s">
@@ -3278,7 +3353,7 @@
     </row>
     <row r="20" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="68" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
@@ -3304,7 +3379,9 @@
     </row>
     <row r="22" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="63"/>
-      <c r="C22" s="71"/>
+      <c r="C22" s="71" t="s">
+        <v>187</v>
+      </c>
       <c r="D22" s="72"/>
       <c r="E22" s="72"/>
       <c r="F22" s="72"/>
@@ -3312,13 +3389,27 @@
       <c r="H22" s="73"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="74"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="103"/>
-      <c r="G23" s="103"/>
-      <c r="H23" s="104"/>
+      <c r="B23" s="74" t="s">
+        <v>190</v>
+      </c>
+      <c r="C23" s="75" t="s">
+        <v>191</v>
+      </c>
+      <c r="D23" s="75" t="s">
+        <v>191</v>
+      </c>
+      <c r="E23" s="75" t="s">
+        <v>191</v>
+      </c>
+      <c r="F23" s="75" t="s">
+        <v>191</v>
+      </c>
+      <c r="G23" s="75" t="s">
+        <v>191</v>
+      </c>
+      <c r="H23" s="75" t="s">
+        <v>191</v>
+      </c>
       <c r="I23" s="102"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
@@ -3392,6 +3483,44 @@
       <c r="F31" s="51"/>
       <c r="G31" s="51"/>
       <c r="H31" s="50"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>194</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>6</v>
+      </c>
+      <c r="E36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>195</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>6</v>
+      </c>
+      <c r="E37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>196</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -3405,14 +3534,14 @@
   <dimension ref="B2:J31"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="108" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="106" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="9" style="2"/>
     <col min="7" max="7" width="43.875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="62.25" style="1" bestFit="1" customWidth="1"/>
@@ -3431,7 +3560,7 @@
       <c r="B4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="109" t="s">
+      <c r="C4" s="107" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="14" t="s">
@@ -3566,7 +3695,7 @@
       <c r="B9" s="28">
         <v>5</v>
       </c>
-      <c r="C9" s="116">
+      <c r="C9" s="120">
         <v>43868</v>
       </c>
       <c r="D9" s="30" t="s">
@@ -3595,7 +3724,7 @@
       <c r="B10" s="28">
         <v>6</v>
       </c>
-      <c r="C10" s="117"/>
+      <c r="C10" s="121"/>
       <c r="D10" s="30" t="s">
         <v>54</v>
       </c>
@@ -3622,7 +3751,7 @@
       <c r="B11" s="28">
         <v>7</v>
       </c>
-      <c r="C11" s="118"/>
+      <c r="C11" s="122"/>
       <c r="D11" s="30" t="s">
         <v>54</v>
       </c>
@@ -3649,16 +3778,16 @@
       <c r="B12" s="28">
         <v>8</v>
       </c>
-      <c r="C12" s="116">
+      <c r="C12" s="120">
         <v>43869</v>
       </c>
-      <c r="D12" s="105" t="s">
+      <c r="D12" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="105" t="s">
+      <c r="E12" s="103" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="105" t="s">
+      <c r="F12" s="103" t="s">
         <v>50</v>
       </c>
       <c r="G12" s="29" t="s">
@@ -3678,14 +3807,14 @@
       <c r="B13" s="28">
         <v>9</v>
       </c>
-      <c r="C13" s="117"/>
-      <c r="D13" s="105" t="s">
+      <c r="C13" s="121"/>
+      <c r="D13" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="105" t="s">
+      <c r="E13" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="105" t="s">
+      <c r="F13" s="103" t="s">
         <v>50</v>
       </c>
       <c r="G13" s="29" t="s">
@@ -3705,14 +3834,14 @@
       <c r="B14" s="28">
         <v>10</v>
       </c>
-      <c r="C14" s="118"/>
-      <c r="D14" s="105" t="s">
+      <c r="C14" s="122"/>
+      <c r="D14" s="103" t="s">
         <v>89</v>
       </c>
-      <c r="E14" s="105" t="s">
+      <c r="E14" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="105" t="s">
+      <c r="F14" s="103" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="29" t="s">
@@ -3732,7 +3861,7 @@
       <c r="B15" s="4">
         <v>11</v>
       </c>
-      <c r="C15" s="119">
+      <c r="C15" s="123">
         <v>43870</v>
       </c>
       <c r="D15" s="85" t="s">
@@ -3759,7 +3888,7 @@
       <c r="B16" s="4">
         <v>12</v>
       </c>
-      <c r="C16" s="120"/>
+      <c r="C16" s="124"/>
       <c r="D16" s="5" t="s">
         <v>51</v>
       </c>
@@ -3782,7 +3911,7 @@
       <c r="B17" s="28">
         <v>13</v>
       </c>
-      <c r="C17" s="106">
+      <c r="C17" s="104">
         <v>43873</v>
       </c>
       <c r="D17" s="85" t="s">
@@ -3829,29 +3958,29 @@
       <c r="J18" s="7"/>
     </row>
     <row r="19" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B19" s="110">
+      <c r="B19" s="108">
         <v>15</v>
       </c>
-      <c r="C19" s="111">
+      <c r="C19" s="109">
         <v>43875</v>
       </c>
-      <c r="D19" s="112" t="s">
+      <c r="D19" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="112" t="s">
+      <c r="E19" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="112" t="s">
+      <c r="F19" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="113" t="s">
+      <c r="G19" s="111" t="s">
         <v>179</v>
       </c>
-      <c r="H19" s="114" t="s">
+      <c r="H19" s="112" t="s">
         <v>180</v>
       </c>
-      <c r="I19" s="114"/>
-      <c r="J19" s="115"/>
+      <c r="I19" s="112"/>
+      <c r="J19" s="113"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
@@ -3876,7 +4005,7 @@
       <c r="I20" s="6"/>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B21" s="4">
         <v>17</v>
       </c>
@@ -3895,11 +4024,13 @@
       <c r="G21" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="H21" s="6" t="s">
-        <v>185</v>
+      <c r="H21" s="137" t="s">
+        <v>188</v>
       </c>
       <c r="I21" s="6"/>
-      <c r="J21" s="7"/>
+      <c r="J21" s="138" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
@@ -4092,7 +4223,7 @@
       <c r="B5" s="22">
         <v>1</v>
       </c>
-      <c r="C5" s="125">
+      <c r="C5" s="129">
         <v>43866</v>
       </c>
       <c r="D5" s="24">
@@ -4127,7 +4258,7 @@
       <c r="B6" s="28">
         <v>2</v>
       </c>
-      <c r="C6" s="126"/>
+      <c r="C6" s="130"/>
       <c r="D6" s="30">
         <v>2</v>
       </c>
@@ -4160,7 +4291,7 @@
       <c r="B7" s="28">
         <v>3</v>
       </c>
-      <c r="C7" s="126">
+      <c r="C7" s="130">
         <v>43868</v>
       </c>
       <c r="D7" s="30">
@@ -4195,7 +4326,7 @@
       <c r="B8" s="28">
         <v>4</v>
       </c>
-      <c r="C8" s="126"/>
+      <c r="C8" s="130"/>
       <c r="D8" s="30">
         <v>1</v>
       </c>
@@ -4228,10 +4359,10 @@
       <c r="B9" s="28">
         <v>5</v>
       </c>
-      <c r="C9" s="116">
+      <c r="C9" s="120">
         <v>43869</v>
       </c>
-      <c r="D9" s="122">
+      <c r="D9" s="126">
         <v>2</v>
       </c>
       <c r="E9" s="30" t="s">
@@ -4243,16 +4374,16 @@
       <c r="G9" s="30">
         <v>470</v>
       </c>
-      <c r="H9" s="127" t="s">
+      <c r="H9" s="131" t="s">
         <v>76</v>
       </c>
-      <c r="I9" s="121" t="s">
+      <c r="I9" s="125" t="s">
         <v>77</v>
       </c>
-      <c r="J9" s="128" t="s">
+      <c r="J9" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="121" t="s">
+      <c r="K9" s="125" t="s">
         <v>98</v>
       </c>
       <c r="L9" s="33" t="s">
@@ -4263,8 +4394,8 @@
       <c r="B10" s="28">
         <v>6</v>
       </c>
-      <c r="C10" s="117"/>
-      <c r="D10" s="123"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="127"/>
       <c r="E10" s="30" t="s">
         <v>73</v>
       </c>
@@ -4274,10 +4405,10 @@
       <c r="G10" s="30">
         <v>47</v>
       </c>
-      <c r="H10" s="127"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="128"/>
-      <c r="K10" s="121"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="132"/>
+      <c r="K10" s="125"/>
       <c r="L10" s="33" t="s">
         <v>150</v>
       </c>
@@ -4286,8 +4417,8 @@
       <c r="B11" s="28">
         <v>7</v>
       </c>
-      <c r="C11" s="117"/>
-      <c r="D11" s="123"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="127"/>
       <c r="E11" s="30" t="s">
         <v>74</v>
       </c>
@@ -4297,10 +4428,10 @@
       <c r="G11" s="30">
         <v>0</v>
       </c>
-      <c r="H11" s="127"/>
-      <c r="I11" s="121"/>
-      <c r="J11" s="128"/>
-      <c r="K11" s="121"/>
+      <c r="H11" s="131"/>
+      <c r="I11" s="125"/>
+      <c r="J11" s="132"/>
+      <c r="K11" s="125"/>
       <c r="L11" s="33" t="s">
         <v>150</v>
       </c>
@@ -4309,8 +4440,8 @@
       <c r="B12" s="28">
         <v>8</v>
       </c>
-      <c r="C12" s="117"/>
-      <c r="D12" s="123"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="127"/>
       <c r="E12" s="30" t="s">
         <v>75</v>
       </c>
@@ -4320,10 +4451,10 @@
       <c r="G12" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="H12" s="127"/>
-      <c r="I12" s="121"/>
-      <c r="J12" s="128"/>
-      <c r="K12" s="121"/>
+      <c r="H12" s="131"/>
+      <c r="I12" s="125"/>
+      <c r="J12" s="132"/>
+      <c r="K12" s="125"/>
       <c r="L12" s="33" t="s">
         <v>150</v>
       </c>
@@ -4332,8 +4463,8 @@
       <c r="B13" s="28">
         <v>9</v>
       </c>
-      <c r="C13" s="117"/>
-      <c r="D13" s="124"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="128"/>
       <c r="E13" s="30" t="s">
         <v>92</v>
       </c>
@@ -4343,10 +4474,10 @@
       <c r="G13" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="H13" s="127"/>
-      <c r="I13" s="121"/>
-      <c r="J13" s="128"/>
-      <c r="K13" s="121"/>
+      <c r="H13" s="131"/>
+      <c r="I13" s="125"/>
+      <c r="J13" s="132"/>
+      <c r="K13" s="125"/>
       <c r="L13" s="33" t="s">
         <v>150</v>
       </c>
@@ -4355,7 +4486,7 @@
       <c r="B14" s="28">
         <v>10</v>
       </c>
-      <c r="C14" s="118"/>
+      <c r="C14" s="122"/>
       <c r="D14" s="30">
         <v>4</v>
       </c>
@@ -4544,7 +4675,7 @@
       <c r="B5" s="22">
         <v>1</v>
       </c>
-      <c r="C5" s="129">
+      <c r="C5" s="133">
         <v>43866</v>
       </c>
       <c r="D5" s="23">
@@ -4579,7 +4710,7 @@
       <c r="B6" s="28">
         <v>2</v>
       </c>
-      <c r="C6" s="118"/>
+      <c r="C6" s="122"/>
       <c r="D6" s="29">
         <v>4</v>
       </c>
@@ -4647,7 +4778,7 @@
       <c r="B8" s="28">
         <v>4</v>
       </c>
-      <c r="C8" s="116">
+      <c r="C8" s="120">
         <v>43871</v>
       </c>
       <c r="D8" s="29">
@@ -4682,7 +4813,7 @@
       <c r="B9" s="28">
         <v>5</v>
       </c>
-      <c r="C9" s="117"/>
+      <c r="C9" s="121"/>
       <c r="D9" s="29">
         <v>2</v>
       </c>
@@ -4695,16 +4826,16 @@
       <c r="G9" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="H9" s="130" t="s">
+      <c r="H9" s="134" t="s">
         <v>149</v>
       </c>
-      <c r="I9" s="132" t="s">
+      <c r="I9" s="136" t="s">
         <v>144</v>
       </c>
-      <c r="J9" s="132" t="s">
+      <c r="J9" s="136" t="s">
         <v>144</v>
       </c>
-      <c r="K9" s="132" t="s">
+      <c r="K9" s="136" t="s">
         <v>144</v>
       </c>
       <c r="L9" s="33" t="s">
@@ -4715,7 +4846,7 @@
       <c r="B10" s="28">
         <v>6</v>
       </c>
-      <c r="C10" s="118"/>
+      <c r="C10" s="122"/>
       <c r="D10" s="29">
         <v>2</v>
       </c>
@@ -4728,10 +4859,10 @@
       <c r="G10" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="H10" s="131"/>
-      <c r="I10" s="124"/>
-      <c r="J10" s="124"/>
-      <c r="K10" s="124"/>
+      <c r="H10" s="135"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="128"/>
+      <c r="K10" s="128"/>
       <c r="L10" s="33" t="s">
         <v>151</v>
       </c>
@@ -4974,7 +5105,7 @@
       <c r="B5" s="22">
         <v>1</v>
       </c>
-      <c r="C5" s="107">
+      <c r="C5" s="105">
         <v>43874</v>
       </c>
       <c r="D5" s="23">

--- a/1_Schematic/Build V2.0/RF-GEN-Change list_20200225.xlsx
+++ b/1_Schematic/Build V2.0/RF-GEN-Change list_20200225.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="SET" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="205">
   <si>
     <t>No</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -837,6 +837,34 @@
   </si>
   <si>
     <t>집</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>R5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF Gain 올림 V/V Gain = 7.8 Vout, RFIN=15V</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>L4,L5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.25uH-14PI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Short</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>출력 개선( Origin max 40W)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1995,7 +2023,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2306,55 +2334,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="34" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="34" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="34" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="34" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="34" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="34" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="30" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="30" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2369,6 +2355,57 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="34" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="34" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="34" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="34" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="34" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="34" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="30" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="30" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="71">
@@ -2751,8 +2788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3229,7 +3266,7 @@
       <c r="L13" s="51">
         <v>100</v>
       </c>
-      <c r="M13" s="141">
+      <c r="M13" s="127">
         <v>100</v>
       </c>
       <c r="N13" s="51">
@@ -3241,7 +3278,7 @@
       <c r="P13" s="51">
         <v>100</v>
       </c>
-      <c r="Q13" s="140">
+      <c r="Q13" s="126">
         <v>100</v>
       </c>
     </row>
@@ -3307,7 +3344,7 @@
       <c r="H16" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="L16" s="139"/>
+      <c r="L16" s="125"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="55" t="s">
@@ -3695,7 +3732,7 @@
       <c r="B9" s="28">
         <v>5</v>
       </c>
-      <c r="C9" s="120">
+      <c r="C9" s="128">
         <v>43868</v>
       </c>
       <c r="D9" s="30" t="s">
@@ -3724,7 +3761,7 @@
       <c r="B10" s="28">
         <v>6</v>
       </c>
-      <c r="C10" s="121"/>
+      <c r="C10" s="129"/>
       <c r="D10" s="30" t="s">
         <v>54</v>
       </c>
@@ -3751,7 +3788,7 @@
       <c r="B11" s="28">
         <v>7</v>
       </c>
-      <c r="C11" s="122"/>
+      <c r="C11" s="130"/>
       <c r="D11" s="30" t="s">
         <v>54</v>
       </c>
@@ -3778,7 +3815,7 @@
       <c r="B12" s="28">
         <v>8</v>
       </c>
-      <c r="C12" s="120">
+      <c r="C12" s="128">
         <v>43869</v>
       </c>
       <c r="D12" s="103" t="s">
@@ -3807,7 +3844,7 @@
       <c r="B13" s="28">
         <v>9</v>
       </c>
-      <c r="C13" s="121"/>
+      <c r="C13" s="129"/>
       <c r="D13" s="103" t="s">
         <v>10</v>
       </c>
@@ -3834,7 +3871,7 @@
       <c r="B14" s="28">
         <v>10</v>
       </c>
-      <c r="C14" s="122"/>
+      <c r="C14" s="130"/>
       <c r="D14" s="103" t="s">
         <v>89</v>
       </c>
@@ -3861,7 +3898,7 @@
       <c r="B15" s="4">
         <v>11</v>
       </c>
-      <c r="C15" s="123">
+      <c r="C15" s="131">
         <v>43870</v>
       </c>
       <c r="D15" s="85" t="s">
@@ -3888,7 +3925,7 @@
       <c r="B16" s="4">
         <v>12</v>
       </c>
-      <c r="C16" s="124"/>
+      <c r="C16" s="132"/>
       <c r="D16" s="5" t="s">
         <v>51</v>
       </c>
@@ -4024,11 +4061,11 @@
       <c r="G21" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="H21" s="137" t="s">
+      <c r="H21" s="123" t="s">
         <v>188</v>
       </c>
       <c r="I21" s="6"/>
-      <c r="J21" s="138" t="s">
+      <c r="J21" s="124" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4223,7 +4260,7 @@
       <c r="B5" s="22">
         <v>1</v>
       </c>
-      <c r="C5" s="129">
+      <c r="C5" s="137">
         <v>43866</v>
       </c>
       <c r="D5" s="24">
@@ -4258,7 +4295,7 @@
       <c r="B6" s="28">
         <v>2</v>
       </c>
-      <c r="C6" s="130"/>
+      <c r="C6" s="138"/>
       <c r="D6" s="30">
         <v>2</v>
       </c>
@@ -4291,7 +4328,7 @@
       <c r="B7" s="28">
         <v>3</v>
       </c>
-      <c r="C7" s="130">
+      <c r="C7" s="138">
         <v>43868</v>
       </c>
       <c r="D7" s="30">
@@ -4326,7 +4363,7 @@
       <c r="B8" s="28">
         <v>4</v>
       </c>
-      <c r="C8" s="130"/>
+      <c r="C8" s="138"/>
       <c r="D8" s="30">
         <v>1</v>
       </c>
@@ -4359,10 +4396,10 @@
       <c r="B9" s="28">
         <v>5</v>
       </c>
-      <c r="C9" s="120">
+      <c r="C9" s="128">
         <v>43869</v>
       </c>
-      <c r="D9" s="126">
+      <c r="D9" s="134">
         <v>2</v>
       </c>
       <c r="E9" s="30" t="s">
@@ -4374,16 +4411,16 @@
       <c r="G9" s="30">
         <v>470</v>
       </c>
-      <c r="H9" s="131" t="s">
+      <c r="H9" s="139" t="s">
         <v>76</v>
       </c>
-      <c r="I9" s="125" t="s">
+      <c r="I9" s="133" t="s">
         <v>77</v>
       </c>
-      <c r="J9" s="132" t="s">
+      <c r="J9" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="125" t="s">
+      <c r="K9" s="133" t="s">
         <v>98</v>
       </c>
       <c r="L9" s="33" t="s">
@@ -4394,8 +4431,8 @@
       <c r="B10" s="28">
         <v>6</v>
       </c>
-      <c r="C10" s="121"/>
-      <c r="D10" s="127"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="135"/>
       <c r="E10" s="30" t="s">
         <v>73</v>
       </c>
@@ -4405,10 +4442,10 @@
       <c r="G10" s="30">
         <v>47</v>
       </c>
-      <c r="H10" s="131"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="132"/>
-      <c r="K10" s="125"/>
+      <c r="H10" s="139"/>
+      <c r="I10" s="133"/>
+      <c r="J10" s="140"/>
+      <c r="K10" s="133"/>
       <c r="L10" s="33" t="s">
         <v>150</v>
       </c>
@@ -4417,8 +4454,8 @@
       <c r="B11" s="28">
         <v>7</v>
       </c>
-      <c r="C11" s="121"/>
-      <c r="D11" s="127"/>
+      <c r="C11" s="129"/>
+      <c r="D11" s="135"/>
       <c r="E11" s="30" t="s">
         <v>74</v>
       </c>
@@ -4428,10 +4465,10 @@
       <c r="G11" s="30">
         <v>0</v>
       </c>
-      <c r="H11" s="131"/>
-      <c r="I11" s="125"/>
-      <c r="J11" s="132"/>
-      <c r="K11" s="125"/>
+      <c r="H11" s="139"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="140"/>
+      <c r="K11" s="133"/>
       <c r="L11" s="33" t="s">
         <v>150</v>
       </c>
@@ -4440,8 +4477,8 @@
       <c r="B12" s="28">
         <v>8</v>
       </c>
-      <c r="C12" s="121"/>
-      <c r="D12" s="127"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="135"/>
       <c r="E12" s="30" t="s">
         <v>75</v>
       </c>
@@ -4451,10 +4488,10 @@
       <c r="G12" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="H12" s="131"/>
-      <c r="I12" s="125"/>
-      <c r="J12" s="132"/>
-      <c r="K12" s="125"/>
+      <c r="H12" s="139"/>
+      <c r="I12" s="133"/>
+      <c r="J12" s="140"/>
+      <c r="K12" s="133"/>
       <c r="L12" s="33" t="s">
         <v>150</v>
       </c>
@@ -4463,8 +4500,8 @@
       <c r="B13" s="28">
         <v>9</v>
       </c>
-      <c r="C13" s="121"/>
-      <c r="D13" s="128"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="136"/>
       <c r="E13" s="30" t="s">
         <v>92</v>
       </c>
@@ -4474,10 +4511,10 @@
       <c r="G13" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="H13" s="131"/>
-      <c r="I13" s="125"/>
-      <c r="J13" s="132"/>
-      <c r="K13" s="125"/>
+      <c r="H13" s="139"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="140"/>
+      <c r="K13" s="133"/>
       <c r="L13" s="33" t="s">
         <v>150</v>
       </c>
@@ -4486,7 +4523,7 @@
       <c r="B14" s="28">
         <v>10</v>
       </c>
-      <c r="C14" s="122"/>
+      <c r="C14" s="130"/>
       <c r="D14" s="30">
         <v>4</v>
       </c>
@@ -4611,8 +4648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L19"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4675,7 +4712,7 @@
       <c r="B5" s="22">
         <v>1</v>
       </c>
-      <c r="C5" s="133">
+      <c r="C5" s="141">
         <v>43866</v>
       </c>
       <c r="D5" s="23">
@@ -4710,7 +4747,7 @@
       <c r="B6" s="28">
         <v>2</v>
       </c>
-      <c r="C6" s="122"/>
+      <c r="C6" s="130"/>
       <c r="D6" s="29">
         <v>4</v>
       </c>
@@ -4778,7 +4815,7 @@
       <c r="B8" s="28">
         <v>4</v>
       </c>
-      <c r="C8" s="120">
+      <c r="C8" s="128">
         <v>43871</v>
       </c>
       <c r="D8" s="29">
@@ -4813,7 +4850,7 @@
       <c r="B9" s="28">
         <v>5</v>
       </c>
-      <c r="C9" s="121"/>
+      <c r="C9" s="129"/>
       <c r="D9" s="29">
         <v>2</v>
       </c>
@@ -4826,16 +4863,16 @@
       <c r="G9" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="H9" s="134" t="s">
+      <c r="H9" s="142" t="s">
         <v>149</v>
       </c>
-      <c r="I9" s="136" t="s">
+      <c r="I9" s="144" t="s">
         <v>144</v>
       </c>
-      <c r="J9" s="136" t="s">
+      <c r="J9" s="144" t="s">
         <v>144</v>
       </c>
-      <c r="K9" s="136" t="s">
+      <c r="K9" s="144" t="s">
         <v>144</v>
       </c>
       <c r="L9" s="33" t="s">
@@ -4846,7 +4883,7 @@
       <c r="B10" s="28">
         <v>6</v>
       </c>
-      <c r="C10" s="122"/>
+      <c r="C10" s="130"/>
       <c r="D10" s="29">
         <v>2</v>
       </c>
@@ -4859,10 +4896,10 @@
       <c r="G10" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="H10" s="135"/>
-      <c r="I10" s="128"/>
-      <c r="J10" s="128"/>
-      <c r="K10" s="128"/>
+      <c r="H10" s="143"/>
+      <c r="I10" s="136"/>
+      <c r="J10" s="136"/>
+      <c r="K10" s="136"/>
       <c r="L10" s="33" t="s">
         <v>151</v>
       </c>
@@ -4903,19 +4940,39 @@
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="4">
+      <c r="B12" s="28">
         <v>8</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="7"/>
+      <c r="C12" s="44">
+        <v>43892</v>
+      </c>
+      <c r="D12" s="29">
+        <v>1</v>
+      </c>
+      <c r="E12" s="121" t="s">
+        <v>198</v>
+      </c>
+      <c r="F12" s="29">
+        <v>680</v>
+      </c>
+      <c r="G12" s="29">
+        <v>100</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="I12" s="120" t="s">
+        <v>200</v>
+      </c>
+      <c r="J12" s="122" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="120" t="s">
+        <v>200</v>
+      </c>
+      <c r="L12" s="33" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
@@ -4927,9 +4984,9 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
       <c r="L13" s="7"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
@@ -4942,9 +4999,9 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
       <c r="L14" s="7"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
@@ -4957,9 +5014,9 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
       <c r="L15" s="7"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
@@ -4972,9 +5029,9 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
       <c r="L16" s="7"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
@@ -4987,9 +5044,9 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
       <c r="L17" s="7"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
@@ -5002,9 +5059,9 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
       <c r="L18" s="7"/>
     </row>
     <row r="19" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -5017,9 +5074,9 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
       <c r="L19" s="11"/>
     </row>
   </sheetData>
@@ -5041,8 +5098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L19"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:C27"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5138,12 +5195,24 @@
       <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="C6" s="42">
+        <v>43892</v>
+      </c>
+      <c r="D6" s="6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>204</v>
+      </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
